--- a/data/file dummy data LLD1 (magang)_rev.xlsx
+++ b/data/file dummy data LLD1 (magang)_rev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Important\Work\Bank Indonesia\LLD-Bank\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0FB11E-BA12-458C-84AD-DE1AE2911771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B1D469-8C68-4E82-93F9-AD687526C74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="915" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="915" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dummy data" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="1049">
   <si>
     <t>baris</t>
   </si>
@@ -3189,6 +3189,18 @@
   </si>
   <si>
     <t>header-output</t>
+  </si>
+  <si>
+    <t>ltd</t>
+  </si>
+  <si>
+    <t>kuar indo</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>Lembaga Penjamin Simpanan</t>
   </si>
 </sst>
 </file>
@@ -3633,8 +3645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB146"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -15351,8 +15363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16050,7 +16062,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16629,10 +16641,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16698,74 +16710,71 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>1000</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>726</v>
+        <v>790</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>791</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B20" t="s">
-        <v>727</v>
-      </c>
-      <c r="C20" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B21" t="s">
         <v>727</v>
       </c>
+      <c r="C21" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B22" t="s">
         <v>727</v>
@@ -16773,379 +16782,395 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B23" t="s">
-        <v>1011</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>1005</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>797</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>996</v>
+        <v>797</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>1006</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>796</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="B41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="B43" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>1007</v>
-      </c>
       <c r="B44" t="s">
-        <v>739</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" t="s">
-        <v>740</v>
+        <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1007</v>
+      </c>
       <c r="B46" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="B47" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>1008</v>
-      </c>
       <c r="B49" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1008</v>
+      </c>
       <c r="B51" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="B55" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="B57" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="B63" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="B65" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="B67" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="B68" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="B69" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="B70" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="B71" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="B72" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="B73" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="B74" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="B75" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="B76" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="B77" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="B78" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>1009</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="B80" t="s">
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+    <row r="83" spans="1:2">
+      <c r="B83" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="85" spans="1:2">
+      <c r="B85" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
+    <row r="87" spans="1:2">
+      <c r="B87" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
+    <row r="89" spans="1:2">
+      <c r="B89" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
         <v>789</v>
       </c>
     </row>
@@ -17159,8 +17184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17441,10 +17466,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17483,6 +17508,14 @@
       </c>
       <c r="B4" t="s">
         <v>1015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
